--- a/medicine/Mort/Cimetières_ancien_et_nouveau_de_Villeurbanne/Cimetières_ancien_et_nouveau_de_Villeurbanne.xlsx
+++ b/medicine/Mort/Cimetières_ancien_et_nouveau_de_Villeurbanne/Cimetières_ancien_et_nouveau_de_Villeurbanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_ancien_et_nouveau_de_Villeurbanne</t>
+          <t>Cimetières_ancien_et_nouveau_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetières ancien et nouveau de Villeurbanne est la réunion des deux cimetières de Villeurbanne en France. Le cimetière ancien de Villeurbanne fondé en 1864 et le cimetière nouveau de Villeurbanne en 1929 sont distants l'un de l'autre de quelques centaines de mètres.
-Au total les deux cimetières s'étendent sur 22 hectares et incluent 24 000 sépultures[1].
+Au total les deux cimetières s'étendent sur 22 hectares et incluent 24 000 sépultures.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_ancien_et_nouveau_de_Villeurbanne</t>
+          <t>Cimetières_ancien_et_nouveau_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière ancien est localisé au 1 rue du cimetière. Le cimetière nouveau est au 192 rue Blum.
 			Entrée du cimetière ancien de Villeurbanne.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_ancien_et_nouveau_de_Villeurbanne</t>
+          <t>Cimetières_ancien_et_nouveau_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien cimetière est également appelé « cimetière ancien de Cusset » du nom du quartier dans lequel il se trouve. Le nouveau cimetière est également appelé « cimetière nouveau de Cusset ».
-L'ancien cimetière est béni le dimanche 6 décembre 1863 et ouvre le 1er janvier 1864[1].
-Lazare Goujon procède à l'ouverture du nouveau cimetière de Villeurbanne le 1er septembre 1929[1].
-Charles Hernu inaugure le carré musulman (ancien cimetière) et le carré juif (nouveau cimetière) en mars 1979[1].
-Une stèle à la mémoire des personnes qui ont donné leur corps à la science est inaugurée le 13 octobre 1987[1] dans le nouveau cimetière. Dans l'ancien cimetière se trouve l'imposant Monument aux Villeurbannais morts pour la France dont la statue est réalisée par Jean-Louis Chorel. Le monument est inauguré le 11 novembre 1925 par Lazare Goujon. Il est par la suite complété par de petites stèles qui l'entoure dédiées à diverses guerres (Seconde Guerre mondiale, guerres d'indépendance en Afrique du nord, résistance intérieure française, notamment).
+L'ancien cimetière est béni le dimanche 6 décembre 1863 et ouvre le 1er janvier 1864.
+Lazare Goujon procède à l'ouverture du nouveau cimetière de Villeurbanne le 1er septembre 1929.
+Charles Hernu inaugure le carré musulman (ancien cimetière) et le carré juif (nouveau cimetière) en mars 1979.
+Une stèle à la mémoire des personnes qui ont donné leur corps à la science est inaugurée le 13 octobre 1987 dans le nouveau cimetière. Dans l'ancien cimetière se trouve l'imposant Monument aux Villeurbannais morts pour la France dont la statue est réalisée par Jean-Louis Chorel. Le monument est inauguré le 11 novembre 1925 par Lazare Goujon. Il est par la suite complété par de petites stèles qui l'entoure dédiées à diverses guerres (Seconde Guerre mondiale, guerres d'indépendance en Afrique du nord, résistance intérieure française, notamment).
 			Cimetière israélite dans le cimetière nouveau.
 			Stèle à la mémoire des personnes qui ont donné leur corps à la science au nouveau cimetière de Villeurbanne.
 			Allée principale issue de l'entrée au 1 rue du cimetière (ancien cimetière).
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_ancien_et_nouveau_de_Villeurbanne</t>
+          <t>Cimetières_ancien_et_nouveau_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +601,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ancien cimetière
-Plusieurs personnalités sont inhumées dans cet ancien cimetière[2].
-Nouveau cimetière
-Plusieurs personnalités sont inhumées dans ce nouveau cimetière[3],[4].
+          <t>Ancien cimetière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs personnalités sont inhumées dans cet ancien cimetière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetières_ancien_et_nouveau_de_Villeurbanne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8res_ancien_et_nouveau_de_Villeurbanne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouveau cimetière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs personnalités sont inhumées dans ce nouveau cimetière,.
 </t>
         </is>
       </c>
